--- a/Simulador de Investimentos em Fundos Imobiliários.xlsx
+++ b/Simulador de Investimentos em Fundos Imobiliários.xlsx
@@ -5,16 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Carlos\Desktop\Cursos\Excel com IA\Exercícios\Simulador de fundos de investimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Carlos\Desktop\Cursos\Excel com IA\Exercícios\Simulador-de-fundos-de-investimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE739587-CD5F-4476-9DC7-2B04C22B8E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0220CF-6759-49F0-BD1B-CFA18FC85315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEF56398-6A6D-4509-AAF3-B5B3138769F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="881" xr2:uid="{AEF56398-6A6D-4509-AAF3-B5B3138769F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Aport">Planilha1!$D$15</definedName>
+    <definedName name="Patrim_Acumulado">Planilha1!$D$18</definedName>
+    <definedName name="Qtde_Anos">Planilha1!$D$16</definedName>
+    <definedName name="Rendimento_Carteira">Planilha1!$D$11</definedName>
+    <definedName name="Salario">Planilha1!$D$10</definedName>
+    <definedName name="Taxa_Mensal">Planilha1!$D$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Por Quantos Anos?</t>
   </si>
@@ -56,18 +65,106 @@
     <t>Taxa de Rendimento Mensal?</t>
   </si>
   <si>
-    <t/>
+    <t>Quanto em 2 Anos ?</t>
+  </si>
+  <si>
+    <t>Quanto em 5 Anos ?</t>
+  </si>
+  <si>
+    <t>Quanto em 10 Anos ?</t>
+  </si>
+  <si>
+    <t>Quanto em 20 Anos ?</t>
+  </si>
+  <si>
+    <t>Quanto em 30 Anos ?</t>
+  </si>
+  <si>
+    <t>Cenários</t>
+  </si>
+  <si>
+    <t>Dividendos</t>
+  </si>
+  <si>
+    <t>Rendimento Carteira</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÕES</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>AGRESSIVO</t>
+  </si>
+  <si>
+    <t>MODERADO</t>
+  </si>
+  <si>
+    <t>CONSERVADOR</t>
+  </si>
+  <si>
+    <t>VALOR A SER INVESTIDO POR MÊS</t>
+  </si>
+  <si>
+    <t>PERFIL</t>
+  </si>
+  <si>
+    <t>Tipo de FII</t>
+  </si>
+  <si>
+    <t>Percentual Sugerido</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Tijolo</t>
+  </si>
+  <si>
+    <t>Hibridos</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Hotelarias</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentual</t>
+  </si>
+  <si>
+    <t>Chave</t>
+  </si>
+  <si>
+    <t>FOFs</t>
+  </si>
+  <si>
+    <t>Sugestão de Investimento (330%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,29 +181,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="16"/>
       <color theme="0"/>
-      <name val="Aptos Black"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +262,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -141,54 +289,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -196,104 +320,134 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
-      <top style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.24994659260841701"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,27 +462,914 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17961411038436609"/>
+          <c:y val="6.0601851851851872E-2"/>
+          <c:w val="0.7815455562344118"/>
+          <c:h val="0.86124596524553887"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentual Sugerido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$33:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Papel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tijolo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hibridos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FOFs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Desenvolvimento</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hotelarias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$33:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4216-43EF-879E-028CF448F34C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="679985039"/>
+        <c:axId val="679991759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="679985039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679991759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="679991759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679985039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>86138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1623392</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026D44A2-4352-8298-A7EF-6C6251D952AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>549519</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139212</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50014</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1015207</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9883FA-7D53-3688-4B39-10B1F1EC495F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F5EE1C-1B27-A31A-F74D-6A6FC783F427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +1378,51 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11661913"/>
+          <a:ext cx="5877098" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79272</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BCC840-A4AC-AE1A-BF8B-55A149F7359B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -350,8 +1435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="549519" y="139212"/>
-          <a:ext cx="6682154" cy="1815802"/>
+          <a:off x="712304" y="0"/>
+          <a:ext cx="5877098" cy="1300942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -680,121 +1765,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A2839D-BB5F-401B-8941-D6715381F721}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8">
+        <f>D10*30%</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="12">
+        <v>1.0789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
+        <f>(FV(Taxa_Mensal,Qtde_Anos*12,Aport)*-1)</f>
+        <v>306538.10778801696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14">
+        <f>Patrim_Acumulado*Rendimento_Carteira</f>
+        <v>1839.2286467281017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="C22" s="16">
+        <f>FV(Taxa_Mensal,$A22*12,-Aport)</f>
+        <v>34306.810395032975</v>
+      </c>
+      <c r="D22" s="17">
+        <f>C22*Rendimento_Carteira</f>
+        <v>205.84086237019787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1.0789999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <f>(FV(C15,C14*12,C13)*-1)</f>
-        <v>8377.6913998487635</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="13">
-        <f>C16*1%</f>
-        <v>83.776913998487643</v>
-      </c>
-    </row>
+      <c r="B23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="16">
+        <f>FV(Taxa_Mensal,$A23*12,-Aport)</f>
+        <v>105558.91163809443</v>
+      </c>
+      <c r="D23" s="17">
+        <f>C23*Rendimento_Carteira</f>
+        <v>633.35346982856663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16">
+        <f>FV(Taxa_Mensal,$A24*12,-Aport)</f>
+        <v>306538.10778801696</v>
+      </c>
+      <c r="D24" s="17">
+        <f>C24*Rendimento_Carteira</f>
+        <v>1839.2286467281017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="16">
+        <f>FV(Taxa_Mensal,$A25*12,-Aport)</f>
+        <v>1417749.9841223215</v>
+      </c>
+      <c r="D25" s="17">
+        <f>C25*Rendimento_Carteira</f>
+        <v>8506.4999047339297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>30</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
+        <f>FV(Taxa_Mensal,$A26*12,-Aport)</f>
+        <v>5445933.7653059401</v>
+      </c>
+      <c r="D26" s="17">
+        <f>C26*Rendimento_Carteira</f>
+        <v>32675.602591835643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="27">
+        <f>Aport</f>
+        <v>1260</v>
+      </c>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="22">
+        <f>VLOOKUP($C$29&amp;" - " &amp;B33,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="D33" s="20">
+        <f>$C$30*C33</f>
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="22">
+        <f>VLOOKUP($C$29&amp;" - " &amp;B34,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" ref="D34:D38" si="0">$C$30*C34</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="22">
+        <f>VLOOKUP($C$29&amp;" - " &amp;B35,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.08</v>
+      </c>
+      <c r="D35" s="20">
+        <f t="shared" si="0"/>
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="22">
+        <f>VLOOKUP($C$29&amp;" - " &amp;B36,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D36" s="20">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="22">
+        <f>VLOOKUP($C$29&amp;" - " &amp;B37,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="20">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="22">
+        <f>VLOOKUP($C$29&amp;" - " &amp;B38,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="25"/>
+      <c r="C39" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="26">
+        <f>SUM(D33:D38)</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="49" x14ac:dyDescent="0.25"/>
+    <row r="50" x14ac:dyDescent="0.25"/>
+    <row r="51" x14ac:dyDescent="0.25"/>
+    <row r="52" x14ac:dyDescent="0.25"/>
+    <row r="53" x14ac:dyDescent="0.25"/>
+    <row r="54" x14ac:dyDescent="0.25"/>
+    <row r="55" x14ac:dyDescent="0.25"/>
+    <row r="56" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29" xr:uid="{E90DECF7-ACDA-4FA5-A5FA-4BDC24F9A234}">
+      <formula1>"CONSERVADOR,MODERADO,AGRESSIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE5E8F1-B10A-4D5F-A02D-26DC234AD132}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>B3&amp;" - "&amp;C3</f>
+        <v>CONSERVADOR - Papel</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A20" si="0">B4&amp;" - "&amp;C4</f>
+        <v>CONSERVADOR - Tijolo</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSERVADOR - Hibridos</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSERVADOR - FOFs</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSERVADOR - Desenvolvimento</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSERVADOR - Hotelarias</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>MODERADO - Papel</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>MODERADO - Tijolo</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>MODERADO - Hibridos</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>MODERADO - FOFs</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>MODERADO - Desenvolvimento</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>MODERADO - Hotelarias</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRESSIVO - Papel</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRESSIVO - Tijolo</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRESSIVO - Hibridos</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRESSIVO - FOFs</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRESSIVO - Desenvolvimento</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRESSIVO - Hotelarias</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>